--- a/エラー情報.xlsx
+++ b/エラー情報.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="L7" sqref="L7:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
